--- a/src/table/data.xlsx
+++ b/src/table/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yahuis/Desktop/git/Semantics_HIPHOP/src/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509EBC80-5C69-B04E-B0CB-02562926518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C681FD1-0A76-474C-B708-8ABDD7A76DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4F198496-2623-A94B-BB36-275093B50ECA}"/>
   </bookViews>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2028C43B-D5E2-4943-810E-76E74E551222}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,6 +493,118 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f>AVERAGE(B9:B13)</f>
+        <v>18.990400000000001</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(C9:C13)</f>
+        <v>4.5799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>96.198999999999998</v>
+      </c>
+      <c r="C16">
+        <v>55.021999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="B17">
+        <v>107.48099999999999</v>
+      </c>
+      <c r="C17">
+        <v>55.261000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>110.40300000000001</v>
+      </c>
+      <c r="C18">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>112.46599999999999</v>
+      </c>
+      <c r="C19">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>148.37100000000001</v>
+      </c>
+      <c r="C20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>AVERAGE(B16:B20)</f>
+        <v>114.98400000000001</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C16:C20)</f>
+        <v>22.085200000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>28.741</v>
+      </c>
+      <c r="C23">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>28.457000000000001</v>
+      </c>
+      <c r="C24">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>28.838999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>30.597000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.109</v>
+      </c>
+      <c r="B27">
+        <v>28.81</v>
+      </c>
+      <c r="C27">
+        <v>0.108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
